--- a/calculate/TEST_1.XLSX
+++ b/calculate/TEST_1.XLSX
@@ -434,52 +434,52 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Борисов</t>
+          <t>Клецк</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Вилейка</t>
+          <t>Мядель</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Клецк</t>
+          <t>Несвиж</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Молодечно</t>
+          <t>Пуховичи</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Мядель</t>
+          <t>Солигорск</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Несвиж</t>
+          <t>Слуцк</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Солигорск</t>
+          <t>Смолевичи</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Смолевичи</t>
+          <t>Старые дороги</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Старые Дороги</t>
+          <t>Столбцы</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Столбцы</t>
+          <t>Узда</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
@@ -633,102 +633,102 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>139.481</t>
+          <t>11.462</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>34.61</t>
+          <t>15.659</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27.167</t>
+          <t>13.332</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.695</t>
+          <t>12.423</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.462</t>
+          <t>19.482</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15.659</t>
+          <t>20.003</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>97.404</t>
+          <t>29.096</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>34.355</t>
+          <t>39.905</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13.332</t>
+          <t>111.435</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.423</t>
+          <t>19.076</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>19.482</t>
+          <t>61.396</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20.003</t>
+          <t>26.802</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>111.435</t>
+          <t>21.014</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>19.076</t>
+          <t>31.276</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>21.014</t>
+          <t>11.198</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>31.276</t>
+          <t>8.993</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>11.198</t>
+          <t>17.42</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>8.993</t>
+          <t>21.054</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>10.781</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>21.054</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -765,77 +765,77 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>370</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>255</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>290</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -892,64 +892,64 @@
         <v>32040.15</v>
       </c>
       <c r="E5" t="n">
-        <v>47479.33240000001</v>
+        <v>2688.9852</v>
       </c>
       <c r="F5" t="n">
-        <v>4776.18</v>
+        <v>2160.942</v>
       </c>
       <c r="G5" t="n">
-        <v>7248.155600000001</v>
+        <v>3127.6872</v>
       </c>
       <c r="H5" t="n">
-        <v>2855.91</v>
+        <v>1714.374</v>
       </c>
       <c r="I5" t="n">
-        <v>2688.9852</v>
+        <v>4570.4772</v>
       </c>
       <c r="J5" t="n">
-        <v>2160.942</v>
+        <v>2760.414</v>
       </c>
       <c r="K5" t="n">
-        <v>28675.7376</v>
+        <v>7762.812800000001</v>
       </c>
       <c r="L5" t="n">
-        <v>4740.99</v>
+        <v>5506.89</v>
       </c>
       <c r="M5" t="n">
-        <v>3127.6872</v>
+        <v>37932.47400000001</v>
       </c>
       <c r="N5" t="n">
-        <v>1714.374</v>
+        <v>2632.488</v>
       </c>
       <c r="O5" t="n">
-        <v>4570.4772</v>
+        <v>18074.9824</v>
       </c>
       <c r="P5" t="n">
-        <v>2760.414</v>
+        <v>3698.676</v>
       </c>
       <c r="Q5" t="n">
-        <v>37932.47400000001</v>
+        <v>5606.535199999999</v>
       </c>
       <c r="R5" t="n">
-        <v>2632.488</v>
+        <v>4316.088</v>
       </c>
       <c r="S5" t="n">
-        <v>5606.535199999999</v>
+        <v>2627.0508</v>
       </c>
       <c r="T5" t="n">
-        <v>4316.088</v>
+        <v>1241.034</v>
       </c>
       <c r="U5" t="n">
-        <v>2627.0508</v>
+        <v>4086.732</v>
       </c>
       <c r="V5" t="n">
-        <v>1241.034</v>
+        <v>2905.452</v>
       </c>
       <c r="W5" t="n">
-        <v>4086.732</v>
+        <v>2529.222600000001</v>
       </c>
       <c r="X5" t="n">
-        <v>2905.452</v>
+        <v>1800.9</v>
       </c>
       <c r="Y5" t="n">
         <v>3905.3862</v>
@@ -981,77 +981,77 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1135,34 +1135,34 @@
         <v>8252.620800000001</v>
       </c>
       <c r="E9" t="n">
-        <v>19564.87456</v>
+        <v>2141.60268</v>
       </c>
       <c r="G9" t="n">
-        <v>4691.60256</v>
+        <v>2395.10592</v>
       </c>
       <c r="I9" t="n">
-        <v>2141.60268</v>
+        <v>3530.58372</v>
       </c>
       <c r="K9" t="n">
-        <v>14906.7876</v>
+        <v>5318.51448</v>
       </c>
       <c r="M9" t="n">
-        <v>2395.10592</v>
+        <v>15488.88816</v>
       </c>
       <c r="O9" t="n">
-        <v>3530.58372</v>
+        <v>9481.33232</v>
       </c>
       <c r="Q9" t="n">
-        <v>15488.88816</v>
+        <v>3881.851679999999</v>
       </c>
       <c r="S9" t="n">
-        <v>3881.851679999999</v>
+        <v>1987.85964</v>
       </c>
       <c r="U9" t="n">
-        <v>1987.85964</v>
+        <v>3209.36664</v>
       </c>
       <c r="W9" t="n">
-        <v>3209.36664</v>
+        <v>1986.56382</v>
       </c>
       <c r="Y9" t="n">
         <v>3013.0713</v>
@@ -1183,34 +1183,34 @@
         <v>64.040337408</v>
       </c>
       <c r="E10" t="n">
-        <v>151.8234265856</v>
+        <v>16.6188367968</v>
       </c>
       <c r="G10" t="n">
-        <v>36.40683586559999</v>
+        <v>18.5860219392</v>
       </c>
       <c r="I10" t="n">
-        <v>16.6188367968</v>
+        <v>27.3973296672</v>
       </c>
       <c r="K10" t="n">
-        <v>115.676671776</v>
+        <v>41.2716723648</v>
       </c>
       <c r="M10" t="n">
-        <v>18.5860219392</v>
+        <v>120.1937721216</v>
       </c>
       <c r="O10" t="n">
-        <v>27.3973296672</v>
+        <v>73.57513880319999</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.1937721216</v>
+        <v>30.12316903679999</v>
       </c>
       <c r="S10" t="n">
-        <v>30.12316903679999</v>
+        <v>15.4257908064</v>
       </c>
       <c r="U10" t="n">
-        <v>15.4257908064</v>
+        <v>24.9046851264</v>
       </c>
       <c r="W10" t="n">
-        <v>24.9046851264</v>
+        <v>15.4157352432</v>
       </c>
       <c r="Y10" t="n">
         <v>23.38143328799999</v>
@@ -1327,34 +1327,34 @@
         <v>10315.776</v>
       </c>
       <c r="E13" t="n">
-        <v>24456.0932</v>
+        <v>2677.00335</v>
       </c>
       <c r="G13" t="n">
-        <v>5864.5032</v>
+        <v>2993.8824</v>
       </c>
       <c r="I13" t="n">
-        <v>2677.00335</v>
+        <v>4413.22965</v>
       </c>
       <c r="K13" t="n">
-        <v>18633.4845</v>
+        <v>6648.143099999999</v>
       </c>
       <c r="M13" t="n">
-        <v>2993.8824</v>
+        <v>19361.1102</v>
       </c>
       <c r="O13" t="n">
-        <v>4413.22965</v>
+        <v>11851.6654</v>
       </c>
       <c r="Q13" t="n">
-        <v>19361.1102</v>
+        <v>4852.314599999999</v>
       </c>
       <c r="S13" t="n">
-        <v>4852.314599999999</v>
+        <v>2484.82455</v>
       </c>
       <c r="U13" t="n">
-        <v>2484.82455</v>
+        <v>4011.7083</v>
       </c>
       <c r="W13" t="n">
-        <v>4011.7083</v>
+        <v>2483.204775</v>
       </c>
       <c r="Y13" t="n">
         <v>3766.339125</v>
@@ -1375,34 +1375,34 @@
         <v>87.684096</v>
       </c>
       <c r="E14" t="n">
-        <v>207.8767922</v>
+        <v>22.754528475</v>
       </c>
       <c r="G14" t="n">
-        <v>49.8482772</v>
+        <v>25.4480004</v>
       </c>
       <c r="I14" t="n">
-        <v>22.754528475</v>
+        <v>37.512452025</v>
       </c>
       <c r="K14" t="n">
-        <v>158.38461825</v>
+        <v>56.50921634999999</v>
       </c>
       <c r="M14" t="n">
-        <v>25.4480004</v>
+        <v>164.5694367</v>
       </c>
       <c r="O14" t="n">
-        <v>37.512452025</v>
+        <v>100.7391559</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.5694367</v>
+        <v>41.24467409999999</v>
       </c>
       <c r="S14" t="n">
-        <v>41.24467409999999</v>
+        <v>21.121008675</v>
       </c>
       <c r="U14" t="n">
-        <v>21.121008675</v>
+        <v>34.09952055</v>
       </c>
       <c r="W14" t="n">
-        <v>34.09952055</v>
+        <v>21.1072405875</v>
       </c>
       <c r="Y14" t="n">
         <v>32.01388256249999</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1535,55 +1535,55 @@
         </is>
       </c>
       <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>39</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>190</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>91</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>29</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>14</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>144</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>16</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>23</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>190</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>29</v>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1638,55 +1638,55 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>42</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>192</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>94</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>32</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>25</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>147</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>18</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>26</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>193</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>40</v>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -1720,34 +1720,34 @@
         <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I19" t="n">
+        <v>45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>250</v>
+      </c>
+      <c r="O19" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>42</v>
+      </c>
+      <c r="S19" t="n">
         <v>33</v>
       </c>
-      <c r="K19" t="n">
-        <v>192</v>
-      </c>
-      <c r="M19" t="n">
-        <v>24</v>
-      </c>
-      <c r="O19" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>251</v>
-      </c>
-      <c r="S19" t="n">
-        <v>52</v>
-      </c>
       <c r="U19" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="W19" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
         <v>32</v>
